--- a/biology/Botanique/Launaea_arborescens/Launaea_arborescens.xlsx
+++ b/biology/Botanique/Launaea_arborescens/Launaea_arborescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Launaea arborescens est une espèce de plantes à fleurs du genre Launaea, de la famille des astéracées. Elle se répartit dans les régions méditerranéennes à bioclimat saharien, mais on peut aussi la retrouver dans un bioclimat aride[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Launaea arborescens est une espèce de plantes à fleurs du genre Launaea, de la famille des astéracées. Elle se répartit dans les régions méditerranéennes à bioclimat saharien, mais on peut aussi la retrouver dans un bioclimat aride.
 </t>
         </is>
       </c>
@@ -511,17 +523,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zollikoferia arborescens Batt.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Zollikoferia arborescens Batt.
 Sonchus freynianus Huter 
 Launaea freyniana Huter
 Zollikoferia arborescens var. cerastina Chabert 
 Launaea melanostigma Pett.
-Prenanthes spinosa T.E.Bowdich
-Noms vernaculaires
-Aulaga majorera aux îles Canaries.
-</t>
+Prenanthes spinosa T.E.Bowdich</t>
         </is>
       </c>
     </row>
@@ -546,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Synonymes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plante buissonnante pouvant atteindre 1 mètre de haut.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aulaga majorera aux îles Canaries.
 </t>
         </is>
       </c>
@@ -577,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Îles Canaries, Minorque, Maroc, Mauritanie, Algérie.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante buissonnante pouvant atteindre 1 mètre de haut.
 </t>
         </is>
       </c>
@@ -608,10 +627,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Îles Canaries, Minorque, Maroc, Mauritanie, Algérie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Launaea_arborescens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Launaea_arborescens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Composition chimique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'analyse chimique par les techniques de spectrométrie de masse et RMN ont permis d'identifier 6 terpenoïdes sur les parties aériennes et souterraines de la plante :
 3β-Hydroxy-11α-ethoxy-olean-12-ene
@@ -619,7 +673,7 @@
 9α-Hydroxy-4α,15-dihydro zaluzanin C
 3β, 14-Dihydroxycostunolide-3-O-β-glycopyranoside
 3β,14-Dihydroxycostunolide-3-O-β-glucopyranosyl-14-O-p-hydroxyphenylacetate
-8-Deoxy-15-(3′-hydroxy-2′-methyl-propanoyl)-lactucin-3′-sulfate[2].</t>
+8-Deoxy-15-(3′-hydroxy-2′-methyl-propanoyl)-lactucin-3′-sulfate.</t>
         </is>
       </c>
     </row>
